--- a/ressources/Grille dévaluation projet V2.xlsx
+++ b/ressources/Grille dévaluation projet V2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_32633A8C507D8F61C4110740397985DC530B32AA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{658FFF1F-8935-43EF-A970-EBC4E89207CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FBA8D-9C80-4590-8540-AD2A306DDE17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation individuelle" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Présentation" sheetId="4" r:id="rId5"/>
     <sheet name="Scholaris" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="174">
   <si>
     <r>
       <t xml:space="preserve">Etudiant 1 : </t>
@@ -688,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1516,10 +1516,10 @@
   <dimension ref="B1:L34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
@@ -1527,8 +1527,8 @@
     <col min="8" max="8" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1"/>
-    <row r="2" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="F2" s="47"/>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="3" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="4" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1579,17 +1579,17 @@
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="11">
         <f t="shared" ref="H4:H7" si="0">IF(G4="A",5,IF(G4="B",4,IF(G4="C",2,1)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="5" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1606,17 +1606,17 @@
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="6" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
@@ -1633,17 +1633,17 @@
         <v>11</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="7" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
@@ -1660,20 +1660,20 @@
         <v>11</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="67.900000000000006" customHeight="1" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="49" t="str">
         <f>IF(H8&gt;4.5,"A",IF(H8&gt;3.5,"B",IF(H8&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
@@ -1681,11 +1681,11 @@
       <c r="G8" s="50"/>
       <c r="H8" s="11">
         <f>AVERAGE(H4:H7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1"/>
-    <row r="11" spans="2:12" ht="67.900000000000006" customHeight="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="46" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="F11" s="47"/>
       <c r="G11" s="48"/>
     </row>
-    <row r="12" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="12" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="6" t="s">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="13" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="14" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="15" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="16" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="67.900000000000006" customHeight="1" thickBot="1">
+    <row r="17" spans="2:12" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
@@ -1841,8 +1841,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15" thickBot="1"/>
-    <row r="20" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="46" t="s">
         <v>27</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="F20" s="47"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="21" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="6" t="s">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="22" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="23" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>12</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="24" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>16</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="25" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>20</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="67.900000000000006" customHeight="1" thickBot="1">
+    <row r="26" spans="2:12" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
         <v>28</v>
       </c>
@@ -1998,8 +1998,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15" thickBot="1"/>
-    <row r="28" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="46" t="s">
         <v>29</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="F28" s="47"/>
       <c r="G28" s="48"/>
     </row>
-    <row r="29" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="29" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="6" t="s">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="30" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="31" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="67.900000000000006" customHeight="1">
+    <row r="32" spans="2:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>16</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="67.900000000000006" customHeight="1">
+    <row r="33" spans="2:8" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="67.900000000000006" customHeight="1" thickBot="1">
+    <row r="34" spans="2:8" ht="67.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="15" t="s">
         <v>30</v>
       </c>
@@ -2181,10 +2181,10 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="67.140625" customWidth="1"/>
@@ -2193,14 +2193,14 @@
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1"/>
-    <row r="2" spans="2:6" ht="31.15">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="52"/>
     </row>
-    <row r="3" spans="2:6" ht="21">
+    <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>32</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>37</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>38</v>
       </c>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>41</v>
       </c>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>42</v>
       </c>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>43</v>
       </c>
@@ -2319,13 +2319,12 @@
       </c>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="2:6" ht="21.6" thickBot="1">
+    <row r="12" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="25" t="str">
-        <f>IF(D12&gt;4.5,"A",IF(D12&gt;3.5,"B",IF(D12&gt;2.5,"C","D")))</f>
-        <v>D</v>
+      <c r="C12" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="D12" s="17">
         <f>AVERAGE(D4:D11)</f>
@@ -2350,11 +2349,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
@@ -2365,8 +2364,8 @@
     <col min="8" max="9" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1"/>
-    <row r="2" spans="2:9" ht="31.15">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
@@ -2376,7 +2375,7 @@
       <c r="F2" s="53"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="2:9" ht="56.45" customHeight="1">
+    <row r="3" spans="2:9" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -2394,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="70.150000000000006" customHeight="1">
+    <row r="4" spans="2:9" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>45</v>
       </c>
@@ -2407,17 +2406,17 @@
         <v>47</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="17">
         <f>IF(G4="A",5,IF(G4="B",4,IF(G4="C",2,1)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="70.150000000000006" customHeight="1">
+    <row r="5" spans="2:9" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>48</v>
       </c>
@@ -2430,17 +2429,17 @@
         <v>50</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" ref="H5:H15" si="0">IF(G5="A",5,IF(G5="B",4,IF(G5="C",2,1)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="70.150000000000006" customHeight="1">
+    <row r="6" spans="2:9" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>51</v>
       </c>
@@ -2457,17 +2456,17 @@
         <v>55</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="70.150000000000006" customHeight="1">
+    <row r="7" spans="2:9" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>56</v>
       </c>
@@ -2484,17 +2483,17 @@
         <v>60</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="70.150000000000006" customHeight="1">
+    <row r="8" spans="2:9" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>61</v>
       </c>
@@ -2511,14 +2510,14 @@
         <v>65</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>66</v>
       </c>
@@ -2535,15 +2534,15 @@
         <v>70</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1">
+    <row r="10" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>71</v>
       </c>
@@ -2566,7 +2565,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1">
+    <row r="11" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>75</v>
       </c>
@@ -2587,7 +2586,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1">
+    <row r="12" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>78</v>
       </c>
@@ -2604,15 +2603,15 @@
         <v>82</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1">
+    <row r="13" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>83</v>
       </c>
@@ -2625,15 +2624,15 @@
         <v>85</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1">
+    <row r="14" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>86</v>
       </c>
@@ -2650,15 +2649,15 @@
         <v>90</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1">
+    <row r="15" spans="2:9" s="3" customFormat="1" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>91</v>
       </c>
@@ -2671,21 +2670,21 @@
         <v>93</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="2:9" ht="21.6" thickBot="1">
+    <row r="16" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="54" t="str">
         <f>IF(H16&gt;4.5,"A",IF(H16&gt;3.5,"B",IF(H16&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
@@ -2693,7 +2692,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="17">
         <f>AVERAGE(H4:H15)</f>
-        <v>1</v>
+        <v>3.9166666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -2715,10 +2714,10 @@
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="N9" sqref="M5:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="56.42578125" customWidth="1"/>
@@ -2726,8 +2725,8 @@
     <col min="8" max="9" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1"/>
-    <row r="2" spans="2:9" ht="31.15">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="55" t="s">
         <v>31</v>
       </c>
@@ -2737,7 +2736,7 @@
       <c r="F2" s="56"/>
       <c r="G2" s="57"/>
     </row>
-    <row r="3" spans="2:9" ht="102.6" customHeight="1">
+    <row r="3" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -2755,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="102.6" customHeight="1">
+    <row r="4" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>94</v>
       </c>
@@ -2768,17 +2767,17 @@
         <v>96</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="17">
         <f>IF(G4="A",5,IF(G4="B",4,IF(G4="C",2,1)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="102.6" customHeight="1">
+    <row r="5" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>97</v>
       </c>
@@ -2791,17 +2790,17 @@
         <v>99</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" ref="H5:H18" si="0">IF(G5="A",5,IF(G5="B",4,IF(G5="C",2,1)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="102.6" customHeight="1">
+    <row r="6" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>100</v>
       </c>
@@ -2814,17 +2813,17 @@
         <v>102</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="2" customFormat="1" ht="102.6" customHeight="1">
+    <row r="7" spans="2:9" s="2" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>103</v>
       </c>
@@ -2841,17 +2840,17 @@
         <v>107</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="2" customFormat="1" ht="102.6" customHeight="1">
+    <row r="8" spans="2:9" s="2" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>108</v>
       </c>
@@ -2864,15 +2863,15 @@
         <v>110</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" s="37"/>
     </row>
-    <row r="9" spans="2:9" ht="102.6" customHeight="1">
+    <row r="9" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>111</v>
       </c>
@@ -2889,14 +2888,14 @@
         <v>115</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="102.6" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>116</v>
       </c>
@@ -2913,14 +2912,14 @@
         <v>120</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="102.6" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>121</v>
       </c>
@@ -2937,14 +2936,14 @@
         <v>125</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="102.6" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>126</v>
       </c>
@@ -2961,14 +2960,14 @@
         <v>130</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="102.6" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>131</v>
       </c>
@@ -2985,14 +2984,14 @@
         <v>135</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="102.6" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>136</v>
       </c>
@@ -3009,14 +3008,14 @@
         <v>140</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="102.6" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>141</v>
       </c>
@@ -3033,14 +3032,14 @@
         <v>145</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" s="4" customFormat="1" ht="102.6" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="4" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>146</v>
       </c>
@@ -3057,15 +3056,15 @@
         <v>150</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:8" ht="102.6" customHeight="1">
+    <row r="17" spans="2:8" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>151</v>
       </c>
@@ -3082,14 +3081,14 @@
         <v>155</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="102.6" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>156</v>
       </c>
@@ -3106,20 +3105,20 @@
         <v>160</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="42.6" customHeight="1" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="39" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="58" t="str">
         <f>IF(H19&gt;4.5,"A",IF(H19&gt;3.5,"B",IF(H19&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
@@ -3127,7 +3126,7 @@
       <c r="G19" s="60"/>
       <c r="H19" s="17">
         <f>AVERAGE(H4:H18)</f>
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -3149,11 +3148,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="41" bestFit="1" customWidth="1"/>
@@ -3163,8 +3162,8 @@
     <col min="8" max="9" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1"/>
-    <row r="2" spans="2:9" ht="31.15">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="51" t="s">
         <v>31</v>
       </c>
@@ -3174,7 +3173,7 @@
       <c r="F2" s="53"/>
       <c r="G2" s="52"/>
     </row>
-    <row r="3" spans="2:9" ht="59.45" customHeight="1">
+    <row r="3" spans="2:9" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -3195,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="97.15" customHeight="1">
+    <row r="4" spans="2:9" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>161</v>
       </c>
@@ -3212,17 +3211,17 @@
         <v>11</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" s="17">
         <f>IF(G4="A",5,IF(G4="B",4,IF(G4="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="97.15" customHeight="1">
+    <row r="5" spans="2:9" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>165</v>
       </c>
@@ -3239,23 +3238,23 @@
         <v>11</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="17">
         <f>IF(G5="A",5,IF(G5="B",4,IF(G5="C",2,1)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="21.6" thickBot="1">
+    <row r="6" spans="2:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="61" t="str">
         <f>IF(H6&gt;4.5,"A",IF(H6&gt;3.5,"B",IF(H6&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -3263,7 +3262,7 @@
       <c r="G6" s="62"/>
       <c r="H6" s="40">
         <f>AVERAGE(H4:H5)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>4</v>
@@ -3287,9 +3286,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -3297,8 +3298,8 @@
     <col min="7" max="8" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1"/>
-    <row r="2" spans="2:9" ht="33.6">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B2" s="63" t="s">
         <v>167</v>
       </c>
@@ -3311,7 +3312,7 @@
       <c r="F2" s="66"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="64"/>
       <c r="C3" s="26" t="s">
         <v>168</v>
@@ -3330,103 +3331,103 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="64"/>
       <c r="C4" s="18" t="str">
         <f>'Livrable Accès mobile'!C12</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D4" s="18" t="str">
         <f>'Sites Web (back avec BDD) '!C16</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="E4" s="18" t="str">
         <f>'Site Web (front)'!C19</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="F4" s="42" t="str">
         <f>Présentation!C6</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="G4" s="41" t="str">
         <f>'Evaluation individuelle'!C8</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="64"/>
       <c r="C5" s="18">
         <f>IF(C4="A",5,IF(C4="B",4,IF(C4="C",2,1)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:F5" si="0">IF(D4="A",5,IF(D4="B",4,IF(D4="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="41">
         <f>IF(G4="A",5,IF(G4="B",4,IF(G4="C",2,1)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="64"/>
       <c r="C6" s="18">
         <f>AVERAGE(C5,$G$5)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ref="D6:F6" si="1">AVERAGE(D5,$G$5)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F6" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1">
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="43" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="44" t="str">
         <f>IF(C6&gt;4.5,"A",IF(C6&gt;3.5,"B",IF(C6&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D7" s="44" t="str">
         <f t="shared" ref="D7:F7" si="2">IF(D6&gt;4.5,"A",IF(D6&gt;3.5,"B",IF(D6&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="E7" s="44" t="str">
         <f t="shared" si="2"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="F7" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:9" ht="15" thickBot="1">
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:9" ht="33.6">
+    <row r="10" spans="2:9" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B10" s="63" t="s">
         <v>167</v>
       </c>
@@ -3439,7 +3440,7 @@
       <c r="F10" s="66"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="64"/>
       <c r="C11" s="26" t="s">
         <v>168</v>
@@ -3458,94 +3459,94 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="64"/>
       <c r="C12" s="18" t="str">
         <f>'Livrable Accès mobile'!C12</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D12" s="18" t="str">
         <f>'Sites Web (back avec BDD) '!C16</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="E12" s="18" t="str">
         <f>'Site Web (front)'!C19</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="F12" s="18" t="str">
         <f>Présentation!C6</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="G12" s="41" t="str">
         <f>'Evaluation individuelle'!C17</f>
         <v>D</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="64"/>
       <c r="C13" s="18">
         <f>IF(C12="A",5,IF(C12="B",4,IF(C12="C",2,1)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ref="D13" si="3">IF(D12="A",5,IF(D12="B",4,IF(D12="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" ref="E13" si="4">IF(E12="A",5,IF(E12="B",4,IF(E12="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" s="42">
         <f t="shared" ref="F13" si="5">IF(F12="A",5,IF(F12="B",4,IF(F12="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="41">
         <f>IF(G12="A",5,IF(G12="B",4,IF(G12="C",2,1)))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="64"/>
       <c r="C14" s="18">
         <f>AVERAGE(C13,$G$5)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ref="D14" si="6">AVERAGE(D13,$G$5)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" ref="E14" si="7">AVERAGE(E13,$G$5)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F14" s="42">
         <f t="shared" ref="F14" si="8">AVERAGE(F13,$G$5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="44" t="str">
         <f>IF(C14&gt;4.5,"A",IF(C14&gt;3.5,"B",IF(C14&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D15" s="44" t="str">
         <f t="shared" ref="D15" si="9">IF(D14&gt;4.5,"A",IF(D14&gt;3.5,"B",IF(D14&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="E15" s="44" t="str">
         <f t="shared" ref="E15" si="10">IF(E14&gt;4.5,"A",IF(E14&gt;3.5,"B",IF(E14&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="F15" s="45" t="str">
         <f t="shared" ref="F15" si="11">IF(F14&gt;4.5,"A",IF(F14&gt;3.5,"B",IF(F14&gt;2.5,"C","D")))</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1"/>
-    <row r="18" spans="2:7" ht="33.6">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B18" s="63" t="s">
         <v>167</v>
       </c>
@@ -3557,7 +3558,7 @@
       <c r="E18" s="65"/>
       <c r="F18" s="66"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="64"/>
       <c r="C19" s="26" t="s">
         <v>168</v>
@@ -3575,94 +3576,94 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="64"/>
       <c r="C20" s="18" t="str">
         <f>'Livrable Accès mobile'!C12</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D20" s="18" t="str">
         <f>'Sites Web (back avec BDD) '!C16</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="E20" s="18" t="str">
         <f>'Site Web (front)'!C19</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="F20" s="42" t="str">
         <f>Présentation!C6</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="G20" s="41" t="str">
         <f>'Evaluation individuelle'!C26</f>
         <v>D</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="64"/>
       <c r="C21" s="18">
         <f>IF(C20="A",5,IF(C20="B",4,IF(C20="C",2,1)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ref="D21" si="12">IF(D20="A",5,IF(D20="B",4,IF(D20="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" ref="E21" si="13">IF(E20="A",5,IF(E20="B",4,IF(E20="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" s="42">
         <f t="shared" ref="F21" si="14">IF(F20="A",5,IF(F20="B",4,IF(F20="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="41">
         <f>IF(G20="A",5,IF(G20="B",4,IF(G20="C",2,1)))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="64"/>
       <c r="C22" s="18">
         <f>AVERAGE(C21,$G$5)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ref="D22" si="15">AVERAGE(D21,$G$5)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" ref="E22" si="16">AVERAGE(E21,$G$5)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F22" s="42">
         <f t="shared" ref="F22" si="17">AVERAGE(F21,$G$5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15" thickBot="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43" t="s">
         <v>173</v>
       </c>
       <c r="C23" s="44" t="str">
         <f>IF(C22&gt;4.5,"A",IF(C22&gt;3.5,"B",IF(C22&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D23" s="44" t="str">
         <f t="shared" ref="D23" si="18">IF(D22&gt;4.5,"A",IF(D22&gt;3.5,"B",IF(D22&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="E23" s="44" t="str">
         <f t="shared" ref="E23" si="19">IF(E22&gt;4.5,"A",IF(E22&gt;3.5,"B",IF(E22&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="F23" s="45" t="str">
         <f t="shared" ref="F23" si="20">IF(F22&gt;4.5,"A",IF(F22&gt;3.5,"B",IF(F22&gt;2.5,"C","D")))</f>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15" thickBot="1"/>
-    <row r="25" spans="2:7" ht="33.6">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:7" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B25" s="63" t="s">
         <v>167</v>
       </c>
@@ -3674,7 +3675,7 @@
       <c r="E25" s="65"/>
       <c r="F25" s="66"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="64"/>
       <c r="C26" s="26" t="s">
         <v>168</v>
@@ -3692,90 +3693,90 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="64"/>
       <c r="C27" s="18" t="str">
         <f>'Livrable Accès mobile'!C12</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D27" s="18" t="str">
         <f>'Sites Web (back avec BDD) '!C16</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="E27" s="18" t="str">
         <f>'Site Web (front)'!C19</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="F27" s="42" t="str">
         <f>Présentation!C6</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="G27" s="41" t="str">
         <f>'Evaluation individuelle'!C34</f>
         <v>D</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="64"/>
       <c r="C28" s="18">
         <f>IF(C27="A",5,IF(C27="B",4,IF(C27="C",2,1)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ref="D28" si="21">IF(D27="A",5,IF(D27="B",4,IF(D27="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ref="E28" si="22">IF(E27="A",5,IF(E27="B",4,IF(E27="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" s="42">
         <f t="shared" ref="F28" si="23">IF(F27="A",5,IF(F27="B",4,IF(F27="C",2,1)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="41">
         <f>IF(G27="A",5,IF(G27="B",4,IF(G27="C",2,1)))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="64"/>
       <c r="C29" s="18">
         <f>AVERAGE(C28,$G$5)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="D29" s="18">
         <f t="shared" ref="D29" si="24">AVERAGE(D28,$G$5)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" ref="E29" si="25">AVERAGE(E28,$G$5)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F29" s="42">
         <f t="shared" ref="F29" si="26">AVERAGE(F28,$G$5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15" thickBot="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="43" t="s">
         <v>173</v>
       </c>
       <c r="C30" s="44" t="str">
         <f>IF(C29&gt;4.5,"A",IF(C29&gt;3.5,"B",IF(C29&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="D30" s="44" t="str">
         <f t="shared" ref="D30" si="27">IF(D29&gt;4.5,"A",IF(D29&gt;3.5,"B",IF(D29&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="E30" s="44" t="str">
         <f t="shared" ref="E30" si="28">IF(E29&gt;4.5,"A",IF(E29&gt;3.5,"B",IF(E29&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="F30" s="45" t="str">
         <f t="shared" ref="F30" si="29">IF(F29&gt;4.5,"A",IF(F29&gt;3.5,"B",IF(F29&gt;2.5,"C","D")))</f>
-        <v>D</v>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
@@ -3794,21 +3795,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E4926E419126FD40BB348C6C93DB04C9" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="93f84e7e2db8eb52f823c5353ed10ce0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="88f20bcf-da08-485d-9eb4-e9727cd3abb4" xmlns:ns3="b8f2e626-f078-4209-836c-b99ed175e4aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41de694adb599e44a2a07db6b07f7fd0" ns2:_="" ns3:_="">
     <xsd:import namespace="88f20bcf-da08-485d-9eb4-e9727cd3abb4"/>
@@ -3999,14 +3985,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1756CC53-E6AA-48E4-96C2-229BA528771A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A393F33E-2546-444C-8F6B-809593FB8825}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="88f20bcf-da08-485d-9eb4-e9727cd3abb4"/>
+    <ds:schemaRef ds:uri="b8f2e626-f078-4209-836c-b99ed175e4aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D09D708C-4BCD-44F3-A1F6-2D966745CA7E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D09D708C-4BCD-44F3-A1F6-2D966745CA7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A393F33E-2546-444C-8F6B-809593FB8825}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1756CC53-E6AA-48E4-96C2-229BA528771A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ressources/Grille dévaluation projet V2.xlsx
+++ b/ressources/Grille dévaluation projet V2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4FBA8D-9C80-4590-8540-AD2A306DDE17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A0C297-1632-415E-BC33-4549620255A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation individuelle" sheetId="6" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="174">
   <si>
     <r>
       <t xml:space="preserve">Etudiant 1 : </t>
@@ -2180,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,8 +2323,9 @@
       <c r="B12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>3</v>
+      <c r="C12" s="25" t="str">
+        <f>IF(D12&gt;4.5,"A",IF(D12&gt;3.5,"B",IF(D12&gt;2.5,"C","D")))</f>
+        <v>D</v>
       </c>
       <c r="D12" s="17">
         <f>AVERAGE(D4:D11)</f>
@@ -3286,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,7 +3336,7 @@
       <c r="B4" s="64"/>
       <c r="C4" s="18" t="str">
         <f>'Livrable Accès mobile'!C12</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D4" s="18" t="str">
         <f>'Sites Web (back avec BDD) '!C16</f>
@@ -3359,7 +3360,7 @@
       <c r="B5" s="64"/>
       <c r="C5" s="18">
         <f>IF(C4="A",5,IF(C4="B",4,IF(C4="C",2,1)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:F5" si="0">IF(D4="A",5,IF(D4="B",4,IF(D4="C",2,1)))</f>
@@ -3383,7 +3384,7 @@
       <c r="B6" s="64"/>
       <c r="C6" s="18">
         <f>AVERAGE(C5,$G$5)</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" ref="D6:F6" si="1">AVERAGE(D5,$G$5)</f>
@@ -3463,7 +3464,7 @@
       <c r="B12" s="64"/>
       <c r="C12" s="18" t="str">
         <f>'Livrable Accès mobile'!C12</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D12" s="18" t="str">
         <f>'Sites Web (back avec BDD) '!C16</f>
@@ -3486,7 +3487,7 @@
       <c r="B13" s="64"/>
       <c r="C13" s="18">
         <f>IF(C12="A",5,IF(C12="B",4,IF(C12="C",2,1)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" ref="D13" si="3">IF(D12="A",5,IF(D12="B",4,IF(D12="C",2,1)))</f>
@@ -3509,7 +3510,7 @@
       <c r="B14" s="64"/>
       <c r="C14" s="18">
         <f>AVERAGE(C13,$G$5)</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="18">
         <f t="shared" ref="D14" si="6">AVERAGE(D13,$G$5)</f>
@@ -3580,7 +3581,7 @@
       <c r="B20" s="64"/>
       <c r="C20" s="18" t="str">
         <f>'Livrable Accès mobile'!C12</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D20" s="18" t="str">
         <f>'Sites Web (back avec BDD) '!C16</f>
@@ -3603,7 +3604,7 @@
       <c r="B21" s="64"/>
       <c r="C21" s="18">
         <f>IF(C20="A",5,IF(C20="B",4,IF(C20="C",2,1)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" ref="D21" si="12">IF(D20="A",5,IF(D20="B",4,IF(D20="C",2,1)))</f>
@@ -3626,7 +3627,7 @@
       <c r="B22" s="64"/>
       <c r="C22" s="18">
         <f>AVERAGE(C21,$G$5)</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="18">
         <f t="shared" ref="D22" si="15">AVERAGE(D21,$G$5)</f>
@@ -3697,7 +3698,7 @@
       <c r="B27" s="64"/>
       <c r="C27" s="18" t="str">
         <f>'Livrable Accès mobile'!C12</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="D27" s="18" t="str">
         <f>'Sites Web (back avec BDD) '!C16</f>
@@ -3720,7 +3721,7 @@
       <c r="B28" s="64"/>
       <c r="C28" s="18">
         <f>IF(C27="A",5,IF(C27="B",4,IF(C27="C",2,1)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" ref="D28" si="21">IF(D27="A",5,IF(D27="B",4,IF(D27="C",2,1)))</f>
@@ -3743,7 +3744,7 @@
       <c r="B29" s="64"/>
       <c r="C29" s="18">
         <f>AVERAGE(C28,$G$5)</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="18">
         <f t="shared" ref="D29" si="24">AVERAGE(D28,$G$5)</f>
@@ -3795,6 +3796,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E4926E419126FD40BB348C6C93DB04C9" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="93f84e7e2db8eb52f823c5353ed10ce0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="88f20bcf-da08-485d-9eb4-e9727cd3abb4" xmlns:ns3="b8f2e626-f078-4209-836c-b99ed175e4aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41de694adb599e44a2a07db6b07f7fd0" ns2:_="" ns3:_="">
     <xsd:import namespace="88f20bcf-da08-485d-9eb4-e9727cd3abb4"/>
@@ -3985,22 +4001,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1756CC53-E6AA-48E4-96C2-229BA528771A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D09D708C-4BCD-44F3-A1F6-2D966745CA7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A393F33E-2546-444C-8F6B-809593FB8825}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4017,21 +4035,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D09D708C-4BCD-44F3-A1F6-2D966745CA7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1756CC53-E6AA-48E4-96C2-229BA528771A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ressources/Grille dévaluation projet V2.xlsx
+++ b/ressources/Grille dévaluation projet V2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A0C297-1632-415E-BC33-4549620255A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8374FE9D-3567-4C3A-871D-36EBD085227E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation individuelle" sheetId="6" r:id="rId1"/>
@@ -2180,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,11 +2484,11 @@
         <v>60</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="30" t="s">
         <v>4</v>
@@ -2558,11 +2558,11 @@
         <v>74</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10" s="31"/>
     </row>
@@ -2693,7 +2693,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="17">
         <f>AVERAGE(H4:H15)</f>
-        <v>3.9166666666666665</v>
+        <v>4.416666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2714,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N9" sqref="M5:N9"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,11 +2864,11 @@
         <v>110</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="37"/>
     </row>
@@ -2889,11 +2889,11 @@
         <v>115</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2913,11 +2913,11 @@
         <v>120</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,11 +2937,11 @@
         <v>125</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3009,11 +3009,11 @@
         <v>140</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3057,11 +3057,11 @@
         <v>150</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -3082,11 +3082,11 @@
         <v>155</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
       <c r="G19" s="60"/>
       <c r="H19" s="17">
         <f>AVERAGE(H4:H18)</f>
-        <v>4.2</v>
+        <v>3.5333333333333332</v>
       </c>
     </row>
   </sheetData>
@@ -3287,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:F40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E15" sqref="D13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,21 +3796,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E4926E419126FD40BB348C6C93DB04C9" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="93f84e7e2db8eb52f823c5353ed10ce0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="88f20bcf-da08-485d-9eb4-e9727cd3abb4" xmlns:ns3="b8f2e626-f078-4209-836c-b99ed175e4aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41de694adb599e44a2a07db6b07f7fd0" ns2:_="" ns3:_="">
     <xsd:import namespace="88f20bcf-da08-485d-9eb4-e9727cd3abb4"/>
@@ -4001,24 +3986,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1756CC53-E6AA-48E4-96C2-229BA528771A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D09D708C-4BCD-44F3-A1F6-2D966745CA7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A393F33E-2546-444C-8F6B-809593FB8825}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4035,4 +4018,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D09D708C-4BCD-44F3-A1F6-2D966745CA7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1756CC53-E6AA-48E4-96C2-229BA528771A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>